--- a/teams-and-rosters/CS320-Sp18-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp18-Teams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="17730" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="15270" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Section 101 (MWF 9:00 - 9:50)</t>
   </si>
@@ -30,42 +30,6 @@
     <t>CS320: Software Engineering Teams - Spring 2018</t>
   </si>
   <si>
-    <t>Team 1</t>
-  </si>
-  <si>
-    <t>Team 2</t>
-  </si>
-  <si>
-    <t>Team 3</t>
-  </si>
-  <si>
-    <t>Team 4</t>
-  </si>
-  <si>
-    <t>Team 5</t>
-  </si>
-  <si>
-    <t>Team 6</t>
-  </si>
-  <si>
-    <t>Team 7</t>
-  </si>
-  <si>
-    <t>Team 8</t>
-  </si>
-  <si>
-    <t>Team 9</t>
-  </si>
-  <si>
-    <t>Team 10</t>
-  </si>
-  <si>
-    <t>Team 11</t>
-  </si>
-  <si>
-    <t>Team 12</t>
-  </si>
-  <si>
     <t>In-Class Mentors: Derek McClellan, Jason Porter</t>
   </si>
   <si>
@@ -73,6 +37,159 @@
   </si>
   <si>
     <t>In-Class Mentors: Mat Jones, Cody Spath</t>
+  </si>
+  <si>
+    <t>AJ Loehr</t>
+  </si>
+  <si>
+    <t>Freddy Seitz</t>
+  </si>
+  <si>
+    <t>Amanda Redhouse</t>
+  </si>
+  <si>
+    <t>Pat Hock</t>
+  </si>
+  <si>
+    <t>Rick Bosse</t>
+  </si>
+  <si>
+    <t>Chris Garrety</t>
+  </si>
+  <si>
+    <t>Logan Feree</t>
+  </si>
+  <si>
+    <t>Matt Hasz</t>
+  </si>
+  <si>
+    <t>Jon Myer</t>
+  </si>
+  <si>
+    <t>Sam Kiser</t>
+  </si>
+  <si>
+    <t>Doug Nicholson</t>
+  </si>
+  <si>
+    <t>Chase Teichmann</t>
+  </si>
+  <si>
+    <t>Aaron Gervasio</t>
+  </si>
+  <si>
+    <t>Kyle Eidson</t>
+  </si>
+  <si>
+    <t>Brian Soto</t>
+  </si>
+  <si>
+    <t>Dave Henry</t>
+  </si>
+  <si>
+    <t>Phil Norris</t>
+  </si>
+  <si>
+    <t>Jason Constantine</t>
+  </si>
+  <si>
+    <t>Kaitlyn Graf</t>
+  </si>
+  <si>
+    <t>Kate Kennelly</t>
+  </si>
+  <si>
+    <t>Jake Minor</t>
+  </si>
+  <si>
+    <t>Jason Pierpont</t>
+  </si>
+  <si>
+    <t>Nate Hays</t>
+  </si>
+  <si>
+    <t>Devin Glispy</t>
+  </si>
+  <si>
+    <t>Andrew Georgiou</t>
+  </si>
+  <si>
+    <t>Christian Waldemar</t>
+  </si>
+  <si>
+    <t>Alaska Kiley</t>
+  </si>
+  <si>
+    <t>Alyssa McDevitt</t>
+  </si>
+  <si>
+    <t>Christian DeShong</t>
+  </si>
+  <si>
+    <t>Rob Politi</t>
+  </si>
+  <si>
+    <t>Joel Horne</t>
+  </si>
+  <si>
+    <t>Ben Sentz</t>
+  </si>
+  <si>
+    <t>Nolan Hamilton</t>
+  </si>
+  <si>
+    <t>Ron Vaccaro</t>
+  </si>
+  <si>
+    <t>Ed Nardo</t>
+  </si>
+  <si>
+    <t>Greg Plachno</t>
+  </si>
+  <si>
+    <t>Team 5:
+ Otter Space Odyssey</t>
+  </si>
+  <si>
+    <t>Team 7: Physical Model Website &amp; DB</t>
+  </si>
+  <si>
+    <t>Team 8: Gambling &amp; Other Minigames</t>
+  </si>
+  <si>
+    <t>Team 10: myCommencement</t>
+  </si>
+  <si>
+    <t>Team 3: TBAG
+&lt;need a name&gt;</t>
+  </si>
+  <si>
+    <t>Team 11:
+Island Adventure</t>
+  </si>
+  <si>
+    <t>Team 12:
+Organ Trail</t>
+  </si>
+  <si>
+    <t>Team 1:
+&lt;????&gt;</t>
+  </si>
+  <si>
+    <t>Team 6:
+&lt;????&gt;</t>
+  </si>
+  <si>
+    <t>Team 4:
+Spartan Eats</t>
+  </si>
+  <si>
+    <t>Team 2:
+Mice-tr0</t>
+  </si>
+  <si>
+    <t>Team 9:
+Acksio</t>
   </si>
 </sst>
 </file>
@@ -256,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,19 +381,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -292,22 +397,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,221 +729,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F29"/>
+  <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="2:6" s="9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="2:6" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="2:6" s="2" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="17" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="2:6" s="9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="2:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B22" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="2:6" s="9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="2:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/teams-and-rosters/CS320-Sp18-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp18-Teams.xlsx
@@ -160,10 +160,6 @@
     <t>Team 10: myCommencement</t>
   </si>
   <si>
-    <t>Team 3: TBAG
-&lt;need a name&gt;</t>
-  </si>
-  <si>
     <t>Team 11:
 Island Adventure</t>
   </si>
@@ -176,10 +172,6 @@
 &lt;????&gt;</t>
   </si>
   <si>
-    <t>Team 6:
-&lt;????&gt;</t>
-  </si>
-  <si>
     <t>Team 4:
 Spartan Eats</t>
   </si>
@@ -190,6 +182,13 @@
   <si>
     <t>Team 9:
 Acksio</t>
+  </si>
+  <si>
+    <t>Team 6:
+Shopeze</t>
+  </si>
+  <si>
+    <t>Team 3: Adventures of Middle Earth</t>
   </si>
 </sst>
 </file>
@@ -398,15 +397,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,6 +417,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,26 +731,25 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="26" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -762,76 +760,76 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -843,76 +841,76 @@
     </row>
     <row r="11" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -924,84 +922,84 @@
     </row>
     <row r="19" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/teams-and-rosters/CS320-Sp18-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp18-Teams.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2018\teams-and-rosters\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="15270" windowHeight="12075"/>
   </bookViews>
@@ -168,10 +173,6 @@
 Organ Trail</t>
   </si>
   <si>
-    <t>Team 1:
-&lt;????&gt;</t>
-  </si>
-  <si>
     <t>Team 4:
 Spartan Eats</t>
   </si>
@@ -189,6 +190,10 @@
   </si>
   <si>
     <t>Team 3: Adventures of Middle Earth</t>
+  </si>
+  <si>
+    <t>Team 1:
+Adventure</t>
   </si>
 </sst>
 </file>
@@ -437,6 +442,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -484,7 +492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,7 +527,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -731,7 +739,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,16 +787,16 @@
     </row>
     <row r="6" spans="2:6" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -863,7 +871,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>44</v>
@@ -941,7 +949,7 @@
     </row>
     <row r="22" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>46</v>
